--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060490B-88B0-4850-A4D7-E4F30CC9BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="6288" yWindow="48" windowWidth="16476" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -812,10 +813,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法人:營業地國籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DataStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -909,11 +906,15 @@
     <t>IncomeDataDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>自然人:居住地國籍/法人:營業地國籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1189,7 +1190,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1280,6 +1281,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1315,6 +1333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1490,11 +1525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1631,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>184</v>
@@ -1797,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1822,7 +1857,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -1844,7 +1879,7 @@
         <v>190</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
@@ -2391,20 +2426,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2416,7 +2451,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>10</v>
@@ -2426,7 +2461,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2641,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>161</v>
@@ -2786,7 +2821,7 @@
         <v>148</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>158</v>
@@ -2796,7 +2831,7 @@
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2847,7 +2882,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>160</v>
@@ -2916,7 +2951,7 @@
         <v>176</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>10</v>
@@ -2935,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>183</v>
@@ -2948,7 +2983,7 @@
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2970,7 +3005,7 @@
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3051,7 +3086,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -3077,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3136,7 +3171,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>129</v>
@@ -3185,10 +3220,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>147</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060490B-88B0-4850-A4D7-E4F30CC9BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8590C4-81BF-422B-AF9C-B1C5B9A92192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6288" yWindow="48" windowWidth="16476" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -649,11 +649,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1STEP TX -&gt; 0  
-2STEP TX -&gt; 1 2   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -756,19 +751,6 @@
   <si>
     <t>位數不足6碼時，前補零
 行業別對照檔CdIndustry</t>
-  </si>
-  <si>
-    <t>共用代碼檔
-00一般
-01員工
-02首購
-03關企公司
-04關企員工
-05保戶
-06團體戶
-07員工二親等
-09新二階員工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
@@ -829,13 +811,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.借戶1.保證人2.擔保品提供人3.交易關係人4.借款戶關係人
-2021/08/24新增欄位
-(2021/08/25上DB)by eric
-(2021/09/17)新增4. by昱衡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IndustryCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -849,11 +824,6 @@
   </si>
   <si>
     <t>是否為金控疑似利害關係人_確認狀態</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.已完成建檔 1.未完成建檔
-(2021/08/13上DB)by eric</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -868,12 +838,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.自然人
-2.法人
-2021.10.15 by eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>身份別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -908,6 +872,47 @@
   </si>
   <si>
     <t>自然人:居住地國籍/法人:營業地國籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+00:一般
+01:員工
+02:首購
+03:關企公司
+04:關企員工
+05:保戶
+06:團體戶
+07:員工二親等
+09:新二階員工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:自然人
+2:法人
+2021.10.15 by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已完成建檔
+1:未完成建檔
+(2021/08/13上DB)by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:借戶
+1:保證人
+2:擔保品提供人
+3:交易關係人
+4:借款戶關係人
+2021/08/24新增欄位
+(2021/08/25上DB)by eric
+(2021/09/17)新增4. by昱衡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:1STEP TX 
+1/2:2STEP TX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1528,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1557,7 @@
         <v>121</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1577,7 +1582,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>81</v>
@@ -1666,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
@@ -1686,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>10</v>
@@ -1709,7 +1714,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>99</v>
@@ -1728,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -1823,7 +1828,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1832,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1845,7 +1850,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1854,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -1876,10 +1881,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
@@ -1889,7 +1894,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1941,7 +1946,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>10</v>
@@ -1961,7 +1966,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>10</v>
@@ -1981,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>10</v>
@@ -2003,7 +2008,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>10</v>
@@ -2205,7 +2210,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>10</v>
@@ -2426,20 +2431,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2451,7 +2456,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>10</v>
@@ -2461,7 +2466,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2492,7 +2497,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>42</v>
@@ -2676,10 +2681,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>10</v>
@@ -2689,7 +2694,7 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2821,17 +2826,17 @@
         <v>148</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="24">
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2873,7 +2878,7 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2882,10 +2887,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>10</v>
@@ -2895,7 +2900,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2904,10 +2909,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>10</v>
@@ -2917,7 +2922,7 @@
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2926,10 +2931,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>10</v>
@@ -2939,7 +2944,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2948,10 +2953,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>10</v>
@@ -2961,41 +2966,41 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" s="25">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>99</v>
@@ -3005,7 +3010,7 @@
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="28" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3086,7 +3091,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -3160,24 +3165,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3196,7 +3201,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3220,10 +3225,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>147</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8590C4-81BF-422B-AF9C-B1C5B9A92192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="220">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -680,10 +679,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2021/01/07新增欄位(2021/01/14上DB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo Asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -915,11 +910,41 @@
 1/2:2STEP TX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>房貸專員/企金人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/07新增欄位(2021/01/14上DB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessOfficer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/17新增欄位 by eric
+原DAT_CU$CUSP.CUSSTN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/17新增欄位 by eric
+原DAT_CU$CUSP.CUSEM1/CUSEM2?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1014,7 +1039,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1055,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,11 +1222,23 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,23 +1329,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1338,23 +1364,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1530,11 +1539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1566,7 @@
         <v>121</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1582,7 +1591,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>81</v>
@@ -1671,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
@@ -1691,10 +1700,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>10</v>
@@ -1707,14 +1716,14 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A76" si="0">A10+1</f>
+        <f t="shared" ref="A11:A78" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>99</v>
@@ -1828,7 +1837,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1837,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1850,7 +1859,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1859,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -1881,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
@@ -1894,7 +1903,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1946,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>10</v>
@@ -1966,7 +1975,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>10</v>
@@ -1986,7 +1995,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>10</v>
@@ -2008,7 +2017,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>10</v>
@@ -2210,7 +2219,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>10</v>
@@ -2431,20 +2440,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2456,7 +2465,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>10</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2681,7 +2690,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>160</v>
@@ -2826,7 +2835,7 @@
         <v>148</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>157</v>
@@ -2836,7 +2845,7 @@
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2878,7 +2887,7 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2887,7 +2896,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>159</v>
@@ -2900,29 +2909,29 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B69" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="25">
-        <v>1</v>
-      </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28" t="s">
-        <v>178</v>
+      <c r="B69" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="35">
+        <v>6</v>
+      </c>
+      <c r="F69" s="36"/>
+      <c r="G69" s="34" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2931,10 +2940,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>10</v>
@@ -2944,7 +2953,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2953,10 +2962,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>10</v>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2975,81 +2984,87 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E72" s="25">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="30">
+        <v>179</v>
+      </c>
+      <c r="E73" s="25">
         <v>1</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="30">
+        <v>1</v>
+      </c>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="18">
-        <v>6</v>
-      </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
+      <c r="B75" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="35">
+        <v>3</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="34" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
@@ -3057,27 +3072,28 @@
         <v>68</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
-        <f t="shared" ref="A77" si="1">A76+1</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>10</v>
@@ -3085,20 +3101,57 @@
       <c r="E77" s="18">
         <v>6</v>
       </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="26"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D84" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
+      <c r="A78" s="18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <f t="shared" ref="A79" si="1">A78+1</f>
+        <v>71</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="26"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3117,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3165,7 +3218,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>135</v>
@@ -3176,7 +3229,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>129</v>
@@ -3201,7 +3254,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3225,10 +3278,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>147</v>
